--- a/input/system_bu_names.xlsx
+++ b/input/system_bu_names.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\labsim\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPathsFork\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746858E6-FFB8-4AF2-887E-2F18A24BB169}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E03DD8-E923-4693-999B-437161780698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="390" windowWidth="38370" windowHeight="20370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Names" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Country</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>tu_fa_family_it_HeadID</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>tu_cbfam_hu_HeadID</t>
   </si>
 </sst>
 </file>
@@ -360,9 +366,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -393,6 +401,14 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/input/system_bu_names.xlsx
+++ b/input/system_bu_names.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPathsFork\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPaths_HU\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E03DD8-E923-4693-999B-437161780698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40515B92-5678-4833-972E-E5466FF6B9A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Country</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>tu_cbfam_hu_HeadID</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>tu_fa_itjt_pl_HeadID</t>
   </si>
 </sst>
 </file>
@@ -366,11 +372,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -409,6 +413,14 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/input/system_bu_names.xlsx
+++ b/input/system_bu_names.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPaths_HU\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40515B92-5678-4833-972E-E5466FF6B9A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374721A3-F977-409A-A349-21915C978C19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Names" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
     <t>Poland</t>
   </si>
   <si>
-    <t>tu_fa_itjt_pl_HeadID</t>
+    <t>tu_fambu_pl_HeadID</t>
   </si>
 </sst>
 </file>
@@ -376,12 +376,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -389,7 +389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -397,7 +397,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -405,7 +405,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -413,7 +413,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>8</v>
       </c>
